--- a/sos-voter-files/nvconfig.xlsx
+++ b/sos-voter-files/nvconfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamessievers/perl5/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63C6DDA9-B35C-2B44-8459-1EBFF10DE72A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="460" windowWidth="21080" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="21075" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>Election Date</t>
   </si>
@@ -39,34 +33,40 @@
     <t>special</t>
   </si>
   <si>
-    <t># 11/3/2020</t>
-  </si>
-  <si>
-    <t>Uncomment after election happens</t>
+    <t>This will be dropped as only 20 cycles used</t>
   </si>
   <si>
     <t>Comment</t>
   </si>
   <si>
-    <t># Blank Rows Not Permitted</t>
+    <t>#6/3/2003</t>
+  </si>
+  <si>
+    <t>#9/13/2011</t>
+  </si>
+  <si>
+    <t>Vote Weight</t>
   </si>
   <si>
     <t>#</t>
   </si>
   <si>
-    <t># NVVOTER Configuration file</t>
-  </si>
-  <si>
-    <t># A Comment about this configuration has # as first character</t>
-  </si>
-  <si>
-    <t># Configure the 20 elections that comprise the last 10 election cycles</t>
+    <t>Ignore Special Elections?</t>
+  </si>
+  <si>
+    <t>#   Comments may be inserted with # sign 1st character in column A</t>
+  </si>
+  <si>
+    <t>#  Vote Weight used in Voting Propensity Calculation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,10 +104,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -117,9 +121,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -168,7 +169,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -201,26 +202,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -253,23 +237,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -445,238 +412,305 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="39.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>44138</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43410</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43263</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42682</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42535</v>
+      </c>
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>41947</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>41800</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>41219</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>41072</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4">
+        <v>2</v>
+      </c>
+      <c r="D16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>40484</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>40337</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>39756</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
         <v>1</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>39672</v>
+      </c>
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>39028</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>38944</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>38293</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>38237</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="B25" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>37565</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>37502</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="4">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
         <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1">
-        <v>44138</v>
-      </c>
-      <c r="B9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>43991</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
-        <v>43410</v>
-      </c>
-      <c r="B11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1">
-        <v>43263</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>42682</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>42535</v>
-      </c>
-      <c r="B14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>41947</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>41800</v>
-      </c>
-      <c r="B16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>41219</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18" s="1">
-        <v>41072</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="1">
-        <v>40799</v>
-      </c>
-      <c r="B19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="1">
-        <v>40484</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1">
-        <v>40337</v>
-      </c>
-      <c r="B21" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="1">
-        <v>39756</v>
-      </c>
-      <c r="B22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="1">
-        <v>39672</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="1">
-        <v>39028</v>
-      </c>
-      <c r="B24" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="1">
-        <v>38944</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="1">
-        <v>38293</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="1">
-        <v>38237</v>
-      </c>
-      <c r="B27" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="1">
-        <v>37775</v>
-      </c>
-      <c r="B28" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="1">
-        <v>37565</v>
-      </c>
-      <c r="B29" t="s">
-        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -686,24 +720,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
